--- a/Data/CUSUM_try.xlsx
+++ b/Data/CUSUM_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YizhiZhang\Documents\GitHub\ISYE6740GroupProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64710C24-750A-42C4-89CA-8E5717256861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165C48E4-2131-47BF-A966-56CD4B8BB572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C30F24E4-2605-4620-A6ED-E0A7F3695C81}"/>
   </bookViews>
@@ -608,6 +608,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CUSUM for CA_2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1025,6 +1051,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CUSUM for CA_3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1063,6 +1114,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Upper CUSUM</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1106,6 +1160,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>LOWER CUSUM</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1149,6 +1206,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>UCL</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1192,6 +1252,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>LCL</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -13242,7 +13305,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
